--- a/SuppXLS/Scen_BAU_Ble_Var_15p.xlsx
+++ b/SuppXLS/Scen_BAU_Ble_Var_15p.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F289A5EE-4B0F-4FFF-B8E4-365A6430B892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A1E39D-318B-4A49-8BDE-9271667C7114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Y109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A66" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62:H109"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
